--- a/extended/Gurobi_results/0516_exp/multiple_machine/base_result.xlsx
+++ b/extended/Gurobi_results/0516_exp/multiple_machine/base_result.xlsx
@@ -340,7 +340,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:C31"/>
+  <dimension ref="A2:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -348,332 +348,167 @@
   <sheetData>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>1000.019598007202</v>
+        <v>1000.025469064713</v>
       </c>
       <c r="B2">
-        <v>321.6149814536387</v>
+        <v>410.2626734592307</v>
       </c>
       <c r="C2">
-        <v>33.65239726642944</v>
+        <v>13.8159675843444</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>1000.031319141388</v>
+        <v>1000.020619153976</v>
       </c>
       <c r="B3">
-        <v>440.813138506549</v>
+        <v>348.3646238553105</v>
       </c>
       <c r="C3">
-        <v>20.99284471186568</v>
+        <v>6.317198107271374</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>1000.025650024414</v>
+        <v>1000.008147001266</v>
       </c>
       <c r="B4">
-        <v>587.863122223707</v>
+        <v>520.6410562301646</v>
       </c>
       <c r="C4">
-        <v>128.402000279729</v>
+        <v>15.92711730659741</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>1000.021347045898</v>
+        <v>1000.018314123154</v>
       </c>
       <c r="B5">
-        <v>465.3917636212357</v>
+        <v>376.9633978401766</v>
       </c>
       <c r="C5">
-        <v>42.54816851536557</v>
+        <v>59.15725373012491</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>1000.013919115067</v>
+        <v>1000.02006983757</v>
       </c>
       <c r="B6">
-        <v>536.6834923569387</v>
+        <v>473.583682058832</v>
       </c>
       <c r="C6">
-        <v>46.47284544994034</v>
+        <v>68.61412063072939</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>1000.021620988846</v>
+        <v>1000.015577077866</v>
       </c>
       <c r="B7">
-        <v>436.5953618751107</v>
+        <v>533.9530671370817</v>
       </c>
       <c r="C7">
-        <v>14.41344792333808</v>
+        <v>23.3445943699249</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>1000.013833999634</v>
+        <v>1000.026963949203</v>
       </c>
       <c r="B8">
-        <v>369.1235383779061</v>
+        <v>640.6560403464987</v>
       </c>
       <c r="C8">
-        <v>47.06371427555985</v>
+        <v>143.1730854362623</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>1000.011509895325</v>
+        <v>1000.027989864349</v>
       </c>
       <c r="B9">
-        <v>275.8185810478787</v>
+        <v>563.1369674275462</v>
       </c>
       <c r="C9">
-        <v>44.13009267961895</v>
+        <v>69.16587129655588</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>1000.021347045898</v>
+        <v>1000.005592107773</v>
       </c>
       <c r="B10">
-        <v>391.393479771011</v>
+        <v>440.5521389317585</v>
       </c>
       <c r="C10">
-        <v>31.03756574996984</v>
+        <v>28.44733637045695</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>1000.023392915726</v>
+        <v>1000.015925884247</v>
       </c>
       <c r="B11">
-        <v>454.3175769723596</v>
+        <v>351.4894383586358</v>
       </c>
       <c r="C11">
-        <v>28.76764791272138</v>
+        <v>22.15593993463688</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>1000.023101091385</v>
+        <v>1000.010399103165</v>
       </c>
       <c r="B12">
-        <v>470.5338061892897</v>
+        <v>381.5086005500955</v>
       </c>
       <c r="C12">
-        <v>30.02127394170154</v>
+        <v>10.62549773901151</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>1000.151037931442</v>
+        <v>1000.031853914261</v>
       </c>
       <c r="B13">
-        <v>471.4149693096015</v>
+        <v>576.7270280601275</v>
       </c>
       <c r="C13">
-        <v>43.73747728491239</v>
+        <v>45.49368185243861</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>1000.025161027908</v>
+        <v>1000.057400941849</v>
       </c>
       <c r="B14">
-        <v>408.8460259947323</v>
+        <v>457.417746618829</v>
       </c>
       <c r="C14">
-        <v>36.39547699855701</v>
+        <v>20.09619909192757</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>1000.030889034271</v>
+        <v>1000.019328117371</v>
       </c>
       <c r="B15">
-        <v>602.8383664108267</v>
+        <v>449.1231085785021</v>
       </c>
       <c r="C15">
-        <v>46.83227437029697</v>
+        <v>15.98328141248956</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>1000.139151096344</v>
+        <v>1000.016917943954</v>
       </c>
       <c r="B16">
-        <v>443.6443767379954</v>
+        <v>458.8734441567825</v>
       </c>
       <c r="C16">
-        <v>42.23607614075055</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17">
-        <v>1000.005120038986</v>
-      </c>
-      <c r="B17">
-        <v>519.2086048309752</v>
-      </c>
-      <c r="C17">
-        <v>43.12098745807867</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18">
-        <v>1000.006642103195</v>
-      </c>
-      <c r="B18">
-        <v>395.1494295624528</v>
-      </c>
-      <c r="C18">
-        <v>29.18177023272847</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19">
-        <v>1000.024775981903</v>
-      </c>
-      <c r="B19">
-        <v>503.6961154810068</v>
-      </c>
-      <c r="C19">
-        <v>31.28491862178804</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20">
-        <v>1000.012416124344</v>
-      </c>
-      <c r="B20">
-        <v>348.5876898095219</v>
-      </c>
-      <c r="C20">
-        <v>43.70684032367278</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21">
-        <v>1000.012781858444</v>
-      </c>
-      <c r="B21">
-        <v>457.8330539865688</v>
-      </c>
-      <c r="C21">
-        <v>63.14247728506834</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22">
-        <v>1000.02312207222</v>
-      </c>
-      <c r="B22">
-        <v>669.6655109351011</v>
-      </c>
-      <c r="C22">
-        <v>63.49842756323753</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23">
-        <v>1000.010933160782</v>
-      </c>
-      <c r="B23">
-        <v>365.4337958977918</v>
-      </c>
-      <c r="C23">
-        <v>19.62521268150631</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24">
-        <v>1000.014675855637</v>
-      </c>
-      <c r="B24">
-        <v>633.6254391835862</v>
-      </c>
-      <c r="C24">
-        <v>31.25529364338745</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25">
-        <v>1000.022421121597</v>
-      </c>
-      <c r="B25">
-        <v>304.2999412330356</v>
-      </c>
-      <c r="C25">
-        <v>7.807541337927093</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26">
-        <v>1000.011910915375</v>
-      </c>
-      <c r="B26">
-        <v>424.5216168440418</v>
-      </c>
-      <c r="C26">
-        <v>12.50296430359687</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27">
-        <v>1000.021250009537</v>
-      </c>
-      <c r="B27">
-        <v>374.8435716310431</v>
-      </c>
-      <c r="C27">
-        <v>40.99547532420831</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28">
-        <v>1000.026351928711</v>
-      </c>
-      <c r="B28">
-        <v>421.0805609504932</v>
-      </c>
-      <c r="C28">
-        <v>37.4239791375426</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29">
-        <v>1000.033622980118</v>
-      </c>
-      <c r="B29">
-        <v>339.1427729862237</v>
-      </c>
-      <c r="C29">
-        <v>28.3557754234385</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30">
-        <v>1000.015302181244</v>
-      </c>
-      <c r="B30">
-        <v>404.2167912057207</v>
-      </c>
-      <c r="C30">
-        <v>14.98659987107869</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31">
-        <v>1000.031337022781</v>
-      </c>
-      <c r="B31">
-        <v>564.2469985415476</v>
-      </c>
-      <c r="C31">
-        <v>15.76103920529982</v>
+        <v>21.5273027718606</v>
       </c>
     </row>
   </sheetData>
